--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T04:28:30+00:00</t>
+    <t>2025-10-06T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceOneissRunForm</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceOneissRunForm</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:14:26+00:00</t>
+    <t>2025-10-07T08:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1307,7 +1307,7 @@
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/ValueSet/DocumentFormatVS</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/ValueSet/DocumentFormatVS</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1878,7 +1878,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.66796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.4296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:34:02+00:00</t>
+    <t>2025-10-07T09:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:19:43+00:00</t>
+    <t>2025-10-07T09:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:49:39+00:00</t>
+    <t>2025-10-07T15:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:24:26+00:00</t>
+    <t>2025-10-08T01:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
+++ b/StructureDefinition-DocumentReferenceOneissRunForm.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
